--- a/Beahvioral_Macro_and_Finance/Tables.xlsx
+++ b/Beahvioral_Macro_and_Finance/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsuni-my.sharepoint.com/personal/t_difrancesco_uva_nl/Documents/Desktop/EPOC/C_Courses/B_Beahvioral Macro and Finance/Finance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tom24\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{56615B8C-68BB-46FB-9E4B-AC00840C1AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E25AE4-8262-49CC-A5F3-29A63C3D89E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF38442-D40D-428C-A80D-79101B20E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FD5FADD-929E-40AF-BF51-4620FE79230C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{0FD5FADD-929E-40AF-BF51-4620FE79230C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -326,10 +332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -641,25 +650,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC6F961-E245-400F-BB40-9886CACF96A0}">
-  <dimension ref="B1:Q26"/>
+  <dimension ref="B1:Q31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="8" width="10.77734375" customWidth="1"/>
-    <col min="11" max="17" width="10.77734375" customWidth="1"/>
+    <col min="2" max="8" width="10.81640625" customWidth="1"/>
+    <col min="11" max="17" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
@@ -679,7 +688,7 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -695,7 +704,7 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
       <c r="C5" s="18">
         <v>1.036</v>
@@ -735,325 +744,325 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>1.036</v>
       </c>
       <c r="C6" s="16">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>1404</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>1704</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1483</v>
+        <v>3</v>
       </c>
       <c r="G6" s="13">
-        <v>1032</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <f>+SUM(C6:G6)</f>
-        <v>6700</v>
+        <v>7</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="22">
         <f>C6/$H$11</f>
-        <v>1.0759240759240759E-2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="23">
         <f t="shared" ref="M6:P6" si="0">D6/$H$11</f>
-        <v>1.4025974025974027E-2</v>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="0"/>
-        <v>1.7022977022977025E-2</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="O6" s="23">
         <f t="shared" si="0"/>
-        <v>1.4815184815184816E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="0"/>
-        <v>1.030969030969031E-2</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="Q6" s="23">
         <f>H6/$H$11</f>
-        <v>6.6933066933066929E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>2873</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>5507</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>5208</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>4341</v>
+        <v>8</v>
       </c>
       <c r="G7" s="13">
-        <v>3071</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:H10" si="1">+SUM(C7:G7)</f>
-        <v>21000</v>
+        <v>22</v>
       </c>
       <c r="K7" s="8">
         <v>1</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" ref="L7:L10" si="2">C7/$H$11</f>
-        <v>2.87012987012987E-2</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="M7" s="26">
         <f t="shared" ref="M7:M11" si="3">D7/$H$11</f>
-        <v>5.5014985014985016E-2</v>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="N7" s="23">
         <f t="shared" ref="N7:N11" si="4">E7/$H$11</f>
-        <v>5.2027972027972026E-2</v>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="O7" s="23">
         <f t="shared" ref="O7:O11" si="5">F7/$H$11</f>
-        <v>4.3366633366633364E-2</v>
+        <v>7.6190476190476197E-2</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" ref="P7:P11" si="6">G7/$H$11</f>
-        <v>3.0679320679320679E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="Q7" s="23">
         <f t="shared" ref="Q7:Q10" si="7">H7/$H$11</f>
-        <v>0.20979020979020979</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.20952380952380953</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
         <v>0.9</v>
       </c>
       <c r="C8" s="4">
-        <v>3541</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>6543</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6">
-        <v>19347</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>7291</v>
+        <v>14</v>
       </c>
       <c r="G8" s="13">
-        <v>5178</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>41900</v>
+        <v>44</v>
       </c>
       <c r="K8" s="8">
         <v>0.9</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="2"/>
-        <v>3.5374625374625372E-2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="23">
         <f t="shared" si="3"/>
-        <v>6.5364635364635368E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="N8" s="26">
         <f t="shared" si="4"/>
-        <v>0.19327672327672327</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="O8" s="23">
         <f t="shared" si="5"/>
-        <v>7.2837162837162836E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="6"/>
-        <v>5.1728271728271727E-2</v>
+        <v>0.15238095238095239</v>
       </c>
       <c r="Q8" s="23">
         <f t="shared" si="7"/>
-        <v>0.41858141858141856</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.41904761904761906</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <v>0.8</v>
       </c>
       <c r="C9" s="4">
-        <v>1927</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>3428</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3">
-        <v>4825</v>
+        <v>5</v>
       </c>
       <c r="F9" s="6">
-        <v>13523</v>
+        <v>7</v>
       </c>
       <c r="G9" s="13">
-        <v>2997</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>26700</v>
+        <v>28</v>
       </c>
       <c r="K9" s="8">
         <v>0.8</v>
       </c>
       <c r="L9" s="25">
         <f t="shared" si="2"/>
-        <v>1.9250749250749252E-2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="23">
         <f t="shared" si="3"/>
-        <v>3.4245754245754247E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="4"/>
-        <v>4.82017982017982E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="O9" s="26">
         <f t="shared" si="5"/>
-        <v>0.1350949050949051</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="6"/>
-        <v>2.9940059940059941E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="Q9" s="23">
         <f t="shared" si="7"/>
-        <v>0.26673326673326675</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>432</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="G10" s="14">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>3800</v>
+        <v>4</v>
       </c>
       <c r="K10" s="8">
         <v>0</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="2"/>
-        <v>2.4175824175824176E-3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" si="3"/>
-        <v>4.3156843156843157E-3</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="N10" s="28">
         <f t="shared" si="4"/>
-        <v>6.0239760239760238E-3</v>
+        <v>0</v>
       </c>
       <c r="O10" s="28">
         <f t="shared" si="5"/>
-        <v>5.1548451548451548E-3</v>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="P10" s="29">
         <f t="shared" si="6"/>
-        <v>2.0049950049950051E-2</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" si="7"/>
-        <v>3.796203796203796E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+        <v>3.8095238095238099E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" ref="C11:H11" si="8">+SUM(C6:C10)</f>
-        <v>9660</v>
+        <v>1</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="8"/>
-        <v>17314</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="8"/>
-        <v>31687</v>
+        <v>13</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="8"/>
-        <v>27154</v>
+        <v>34</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="8"/>
-        <v>14285</v>
+        <v>37</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="8"/>
-        <v>100100</v>
+        <v>105</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="30">
         <f>C11/$H$11</f>
-        <v>9.6503496503496503E-2</v>
+        <v>9.5238095238095247E-3</v>
       </c>
       <c r="M11" s="30">
         <f t="shared" si="3"/>
-        <v>0.17296703296703297</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N11" s="30">
         <f t="shared" si="4"/>
-        <v>0.31655344655344653</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="O11" s="30">
         <f t="shared" si="5"/>
-        <v>0.27126873126873124</v>
+        <v>0.32380952380952382</v>
       </c>
       <c r="P11" s="30">
         <f t="shared" si="6"/>
-        <v>0.14270729270729271</v>
+        <v>0.35238095238095241</v>
       </c>
       <c r="Q11" s="31">
         <f>+SUM(Q6:Q10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="K13" s="35" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="32">
         <f>SUM(L7:L10,M8:M10,N9:N10,O10)</f>
-        <v>0.24905094905094907</v>
+        <v>0.22857142857142854</v>
       </c>
       <c r="O13" s="35" t="s">
         <v>8</v>
@@ -1061,42 +1070,60 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="32">
         <f>SUM(M6:P6,N7:P7,O8:P8,P9)</f>
-        <v>0.33675324675324675</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.62857142857142867</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C16" s="36"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="36"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="36"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="36"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="36"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1106,6 +1133,6 @@
     <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Beahvioral_Macro_and_Finance/Tables.xlsx
+++ b/Beahvioral_Macro_and_Finance/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tom24\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsuni-my.sharepoint.com/personal/t_difrancesco_uva_nl/Documents/Desktop/EPOC/C_Courses/B_Beahvioral Macro and Finance/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF38442-D40D-428C-A80D-79101B20E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{56615B8C-68BB-46FB-9E4B-AC00840C1AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3882E31E-7A9D-40CF-9FBB-662674AF2621}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{0FD5FADD-929E-40AF-BF51-4620FE79230C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FD5FADD-929E-40AF-BF51-4620FE79230C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>before</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>increase risk-taking:</t>
+  </si>
+  <si>
+    <t>Different initial values</t>
+  </si>
+  <si>
+    <t>Base experiment</t>
   </si>
 </sst>
 </file>
@@ -112,10 +118,11 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,6 +229,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -232,7 +248,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,13 +347,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -650,489 +668,937 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC6F961-E245-400F-BB40-9886CACF96A0}">
-  <dimension ref="B1:Q31"/>
+  <dimension ref="B2:T33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="10.81640625" customWidth="1"/>
-    <col min="11" max="17" width="10.81640625" customWidth="1"/>
+    <col min="2" max="8" width="10.77734375" customWidth="1"/>
+    <col min="11" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="K3" s="33" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="K6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="18">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="17">
         <v>1.036</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E8" s="18">
         <v>0.9</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F8" s="18">
         <v>0.8</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G8" s="20">
         <v>0</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="18" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M8" s="18">
         <v>1</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N8" s="18">
         <v>0.9</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O8" s="18">
         <v>0.8</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P8" s="20">
         <v>0</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q8" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="7">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>1.036</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C9" s="15">
+        <v>129</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1048</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1877</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2630</v>
+      </c>
+      <c r="H9" s="2">
+        <f>+SUM(C9:G9)</f>
+        <v>6700</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <f>C9/$H$14</f>
+        <v>1.2887112887112887E-3</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" ref="M9:P9" si="0">D9/$H$14</f>
+        <v>1.014985014985015E-2</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="0"/>
+        <v>1.046953046953047E-2</v>
+      </c>
+      <c r="O9" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8751248751248752E-2</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="0"/>
+        <v>2.6273726273726275E-2</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>H9/$H$14</f>
+        <v>6.6933066933066929E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>424</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3187</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3263</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6071</v>
+      </c>
+      <c r="G10" s="12">
+        <v>8055</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H13" si="1">+SUM(C10:G10)</f>
+        <v>21000</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" ref="L10:L13" si="2">C10/$H$14</f>
+        <v>4.2357642357642358E-3</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" ref="M10:M14" si="3">D10/$H$14</f>
+        <v>3.1838161838161835E-2</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" ref="N10:N14" si="4">E10/$H$14</f>
+        <v>3.2597402597402597E-2</v>
+      </c>
+      <c r="O10" s="22">
+        <f t="shared" ref="O10:O14" si="5">F10/$H$14</f>
+        <v>6.0649350649350647E-2</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" ref="P10:P14" si="6">G10/$H$14</f>
+        <v>8.0469530469530468E-2</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" ref="Q10:Q13" si="7">H10/$H$14</f>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>836</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6364</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6547</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11785</v>
+      </c>
+      <c r="G11" s="12">
+        <v>16368</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>41900</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="2"/>
+        <v>8.3516483516483525E-3</v>
+      </c>
+      <c r="M11" s="22">
+        <f t="shared" si="3"/>
+        <v>6.3576423576423582E-2</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" si="4"/>
+        <v>6.5404595404595409E-2</v>
+      </c>
+      <c r="O11" s="22">
+        <f t="shared" si="5"/>
+        <v>0.11773226773226773</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="6"/>
+        <v>0.16351648351648351</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="7"/>
+        <v>0.41858141858141856</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>549</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4062</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7666</v>
+      </c>
+      <c r="G12" s="12">
+        <v>10424</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>26700</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="24">
+        <f t="shared" si="2"/>
+        <v>5.4845154845154847E-3</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="3"/>
+        <v>4.0579420579420579E-2</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="4"/>
+        <v>3.995004995004995E-2</v>
+      </c>
+      <c r="O12" s="25">
+        <f t="shared" si="5"/>
+        <v>7.658341658341658E-2</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="6"/>
+        <v>0.10413586413586413</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="7"/>
+        <v>0.26673326673326675</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="C13" s="4">
+        <v>104</v>
+      </c>
+      <c r="D13" s="8">
+        <v>584</v>
+      </c>
+      <c r="E13" s="8">
+        <v>551</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1097</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1464</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <f t="shared" si="2"/>
+        <v>1.038961038961039E-3</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="3"/>
+        <v>5.8341658341658342E-3</v>
+      </c>
+      <c r="N13" s="27">
+        <f t="shared" si="4"/>
+        <v>5.5044955044955043E-3</v>
+      </c>
+      <c r="O13" s="27">
+        <f t="shared" si="5"/>
+        <v>1.0959040959040959E-2</v>
+      </c>
+      <c r="P13" s="28">
+        <f t="shared" si="6"/>
+        <v>1.4625374625374625E-2</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="7"/>
+        <v>3.796203796203796E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:H14" si="8">+SUM(C9:C13)</f>
+        <v>2042</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="8"/>
+        <v>15213</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="8"/>
+        <v>15408</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="8"/>
+        <v>28496</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="8"/>
+        <v>38941</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="8"/>
+        <v>100100</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="L14" s="29">
+        <f>C14/$H$14</f>
+        <v>2.0399600399600398E-2</v>
+      </c>
+      <c r="M14" s="29">
+        <f t="shared" si="3"/>
+        <v>0.15197802197802199</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" si="4"/>
+        <v>0.15392607392607394</v>
+      </c>
+      <c r="O14" s="29">
+        <f t="shared" si="5"/>
+        <v>0.28467532467532469</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" si="6"/>
+        <v>0.38902097902097904</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>+SUM(Q9:Q13)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="31">
+        <f>SUM(L10:L13,M11:M13,N12:N13,O13)</f>
+        <v>0.18551448551448549</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="31">
+        <f>SUM(M9:P9,N10:P10,O11:P11,P12)</f>
+        <v>0.62474525474525477</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="T18">
+        <f>18.6+62.5</f>
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="13">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="K23" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="C25" s="17">
+        <v>1.036</v>
+      </c>
+      <c r="D25" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <f>+SUM(C6:G6)</f>
+      <c r="E25" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>1.036</v>
+      </c>
+      <c r="C26" s="15">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
+        <v>311</v>
+      </c>
+      <c r="E26" s="2">
+        <v>279</v>
+      </c>
+      <c r="F26" s="2">
+        <v>548</v>
+      </c>
+      <c r="G26" s="12">
+        <v>827</v>
+      </c>
+      <c r="H26" s="2">
+        <f>+SUM(C26:G26)</f>
+        <v>2000</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="21">
+        <f>C26/$H$31</f>
+        <v>3.5000350003500037E-4</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" ref="M26:P26" si="9">D26/$H$31</f>
+        <v>3.1100311003110031E-3</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" si="9"/>
+        <v>2.7900279002790029E-3</v>
+      </c>
+      <c r="O26" s="22">
+        <f t="shared" si="9"/>
+        <v>5.4800548005480053E-3</v>
+      </c>
+      <c r="P26" s="23">
+        <f t="shared" si="9"/>
+        <v>8.2700827008270091E-3</v>
+      </c>
+      <c r="Q26" s="22">
+        <f>H26/$H$31</f>
+        <v>2.0000200002000021E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>307</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2282</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2324</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4334</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5953</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" ref="H27:H30" si="10">+SUM(C27:G27)</f>
+        <v>15200</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="24">
+        <f t="shared" ref="L27:L30" si="11">C27/$H$31</f>
+        <v>3.070030700307003E-3</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" ref="M27:M31" si="12">D27/$H$31</f>
+        <v>2.2820228202282022E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <f t="shared" ref="N27:N31" si="13">E27/$H$31</f>
+        <v>2.3240232402324024E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" ref="O27:O31" si="14">F27/$H$31</f>
+        <v>4.3340433404334043E-2</v>
+      </c>
+      <c r="P27" s="23">
+        <f t="shared" ref="P27:P31" si="15">G27/$H$31</f>
+        <v>5.953059530595306E-2</v>
+      </c>
+      <c r="Q27" s="22">
+        <f t="shared" ref="Q27:Q30" si="16">H27/$H$31</f>
+        <v>0.15200152001520015</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>338</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2293</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2351</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4559</v>
+      </c>
+      <c r="G28" s="12">
+        <v>5859</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="10"/>
+        <v>15400</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L28" s="24">
+        <f t="shared" si="11"/>
+        <v>3.3800338003380035E-3</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="12"/>
+        <v>2.2930229302293024E-2</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="13"/>
+        <v>2.3510235102351024E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <f t="shared" si="14"/>
+        <v>4.5590455904559048E-2</v>
+      </c>
+      <c r="P28" s="23">
+        <f t="shared" si="15"/>
+        <v>5.8590585905859062E-2</v>
+      </c>
+      <c r="Q28" s="22">
+        <f t="shared" si="16"/>
+        <v>0.15400154001540015</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>553</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4310</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4320</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8187</v>
+      </c>
+      <c r="G29" s="12">
+        <v>11129</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="10"/>
+        <v>28499</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="24">
+        <f t="shared" si="11"/>
+        <v>5.530055300553006E-3</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="12"/>
+        <v>4.310043100431004E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <f t="shared" si="13"/>
+        <v>4.3200432004320041E-2</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="14"/>
+        <v>8.1870818708187076E-2</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" si="15"/>
+        <v>0.11129111291112911</v>
+      </c>
+      <c r="Q29" s="22">
+        <f t="shared" si="16"/>
+        <v>0.28499284992849927</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>823</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5898</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5914</v>
+      </c>
+      <c r="F30" s="8">
+        <v>11052</v>
+      </c>
+      <c r="G30" s="13">
+        <v>15213</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="10"/>
+        <v>38900</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="26">
+        <f t="shared" si="11"/>
+        <v>8.2300823008230085E-3</v>
+      </c>
+      <c r="M30" s="27">
+        <f t="shared" si="12"/>
+        <v>5.8980589805898057E-2</v>
+      </c>
+      <c r="N30" s="27">
+        <f t="shared" si="13"/>
+        <v>5.9140591405914059E-2</v>
+      </c>
+      <c r="O30" s="27">
+        <f t="shared" si="14"/>
+        <v>0.11052110521105211</v>
+      </c>
+      <c r="P30" s="28">
+        <f t="shared" si="15"/>
+        <v>0.15213152131521315</v>
+      </c>
+      <c r="Q30" s="22">
+        <f t="shared" si="16"/>
+        <v>0.3890038900389004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" ref="C31:H31" si="17">+SUM(C26:C30)</f>
+        <v>2056</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="17"/>
+        <v>15094</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="17"/>
+        <v>15188</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="17"/>
+        <v>28680</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="17"/>
+        <v>38981</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="17"/>
+        <v>99999</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="29">
+        <f>C31/$H$31</f>
+        <v>2.0560205602056021E-2</v>
+      </c>
+      <c r="M31" s="29">
+        <f t="shared" si="12"/>
+        <v>0.15094150941509415</v>
+      </c>
+      <c r="N31" s="29">
+        <f t="shared" si="13"/>
+        <v>0.15188151881518816</v>
+      </c>
+      <c r="O31" s="29">
+        <f t="shared" si="14"/>
+        <v>0.28680286802868027</v>
+      </c>
+      <c r="P31" s="29">
+        <f t="shared" si="15"/>
+        <v>0.38981389813898137</v>
+      </c>
+      <c r="Q31" s="30">
+        <f>+SUM(Q26:Q30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.3">
+      <c r="K33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
-        <f>C6/$H$11</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="23">
-        <f t="shared" ref="M6:P6" si="0">D6/$H$11</f>
-        <v>1.9047619047619049E-2</v>
-      </c>
-      <c r="N6" s="23">
-        <f t="shared" si="0"/>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="O6" s="23">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="P6" s="24">
-        <f t="shared" si="0"/>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="Q6" s="23">
-        <f>H6/$H$11</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="L33" s="34"/>
+      <c r="M33" s="31">
+        <f>SUM(L27:L30,M28:M30,N29:N30,O30)</f>
+        <v>0.35808358083580838</v>
+      </c>
+      <c r="O33" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" ref="H7:H10" si="1">+SUM(C7:G7)</f>
-        <v>22</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="25">
-        <f t="shared" ref="L7:L10" si="2">C7/$H$11</f>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="M7" s="26">
-        <f t="shared" ref="M7:M11" si="3">D7/$H$11</f>
-        <v>1.9047619047619049E-2</v>
-      </c>
-      <c r="N7" s="23">
-        <f t="shared" ref="N7:N11" si="4">E7/$H$11</f>
-        <v>1.9047619047619049E-2</v>
-      </c>
-      <c r="O7" s="23">
-        <f t="shared" ref="O7:O11" si="5">F7/$H$11</f>
-        <v>7.6190476190476197E-2</v>
-      </c>
-      <c r="P7" s="24">
-        <f t="shared" ref="P7:P11" si="6">G7/$H$11</f>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="Q7" s="23">
-        <f t="shared" ref="Q7:Q10" si="7">H7/$H$11</f>
-        <v>0.20952380952380953</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>14</v>
-      </c>
-      <c r="G8" s="13">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="L8" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="23">
-        <f t="shared" si="3"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="N8" s="26">
-        <f t="shared" si="4"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="O8" s="23">
-        <f t="shared" si="5"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="P8" s="24">
-        <f t="shared" si="6"/>
-        <v>0.15238095238095239</v>
-      </c>
-      <c r="Q8" s="23">
-        <f t="shared" si="7"/>
-        <v>0.41904761904761906</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>7</v>
-      </c>
-      <c r="G9" s="13">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="L9" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="23">
-        <f t="shared" si="3"/>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="N9" s="23">
-        <f t="shared" si="4"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="O9" s="26">
-        <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="P9" s="24">
-        <f t="shared" si="6"/>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="Q9" s="23">
-        <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="28">
-        <f t="shared" si="3"/>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="N10" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="28">
-        <f t="shared" si="5"/>
-        <v>1.9047619047619049E-2</v>
-      </c>
-      <c r="P10" s="29">
-        <f t="shared" si="6"/>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="Q10" s="23">
-        <f t="shared" si="7"/>
-        <v>3.8095238095238099E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11">
-        <f t="shared" ref="C11:H11" si="8">+SUM(C6:C10)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="8"/>
-        <v>105</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="30">
-        <f>C11/$H$11</f>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="M11" s="30">
-        <f t="shared" si="3"/>
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="N11" s="30">
-        <f t="shared" si="4"/>
-        <v>0.12380952380952381</v>
-      </c>
-      <c r="O11" s="30">
-        <f t="shared" si="5"/>
-        <v>0.32380952380952382</v>
-      </c>
-      <c r="P11" s="30">
-        <f t="shared" si="6"/>
-        <v>0.35238095238095241</v>
-      </c>
-      <c r="Q11" s="31">
-        <f>+SUM(Q6:Q10)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="32">
-        <f>SUM(L7:L10,M8:M10,N9:N10,O10)</f>
-        <v>0.22857142857142854</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="32">
-        <f>SUM(M6:P6,N7:P7,O8:P8,P9)</f>
-        <v>0.62857142857142867</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C16" s="36"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="36"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="36"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="36"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C27" s="36"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C28" s="36"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C30" s="36"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C31" s="36"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="31">
+        <f>SUM(M26:P26,N27:P27,O28:P28,P29)</f>
+        <v>0.36123361233612339</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:H4"/>
-    <mergeCell ref="K3:Q4"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="O13:P13"/>
+  <mergeCells count="10">
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="B19:Q20"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="B6:H7"/>
+    <mergeCell ref="K6:Q7"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="K23:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>